--- a/sourceFiles/Failures.xlsx
+++ b/sourceFiles/Failures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wiçal\PycharmProjects\CHBR\sourceFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A51509-F3FD-45C6-9076-DCA673CF41C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5032472-CA4A-4F99-9D01-1D19FEE0C6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,162 +45,6 @@
   </si>
   <si>
     <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <r>
       <t>Primitives_F</t>
     </r>
     <r>
@@ -251,6 +95,50 @@
   </si>
   <si>
     <t xml:space="preserve">FN14 ,FN18 ,FN16 ,FN15 </t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -654,7 +542,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -665,10 +553,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.6">
@@ -676,87 +564,87 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="26.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
